--- a/Assets/Assets/游戏设计表.xlsx
+++ b/Assets/Assets/游戏设计表.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="str">
-        <v>桀桀桀，各位不用怀疑，地上这些都是真的。对于各位来到我的实验室，我表示由衷的感谢，接下来还请根据我的提示</v>
+        <v>各位不用怀疑，地上这些都是真的。对于各位来到我的实验室，我表示由衷的感谢，接下来还请根据我的提示行动哦，不然我也不能保证不会发生意外哦，桀桀桀（此时传来了撕心裂肺的喊叫声）。</v>
       </c>
     </row>
     <row r="14">
@@ -592,13 +592,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>2-1</v>
+        <v>1-3</v>
       </c>
       <c r="C14" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="str">
-        <v>怎么可能，为什么我们要来这密室逃脱，混蛋老板。不知道{2}和{3}怎么样了，到底谁被注射了药剂，怎么办，到底该怎么办，不管是谁被注射了，都太危险了，我到时候得想办法甩开他们！</v>
+        <v>哎呀，实验品又开始不安分了呢，各位先走一步。提醒一句，接下来的关卡需要分工完成哦。</v>
       </c>
     </row>
     <row r="15">
@@ -606,13 +606,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>2-1</v>
+        <v>1-3</v>
       </c>
       <c r="C15" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="str">
-        <v>有人被注射了变异，这可怎么办，难道今天真要交代在这里了，不行，我得冷静，到底是谁，谁会是被注射的那一个，会是我吗，不可能，肯定不是我，刚才{1}如此话痨，和他平常没什么区别，应该没什么异常。看来应该是{3}被注射了药剂，可恶，到底该怎么处理！</v>
+        <v>不可能，这都是密室的套路罢了，淡定。</v>
       </c>
     </row>
     <row r="16">
@@ -620,13 +620,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>2-1</v>
+        <v>1-3</v>
       </c>
       <c r="C16" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="str">
-        <v>TMD，这个狗老板该死，别让老子抓到你，否则必然把你打一顿！等等，现在危险得很，是谁呢，是谁被注射了药剂，大家都是好朋友，哎，得赶紧出去，事到如今走一步算一步。</v>
+        <v>你在其它密室哪里见过这样的尸体，我闻着都想吐。</v>
       </c>
     </row>
     <row r="17">
@@ -634,13 +634,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>2-2</v>
+        <v>1-3</v>
       </c>
       <c r="C17" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="str">
-        <v>恭喜你们拿到了开启大门的钥匙，桀桀桀，开启大门吧，新的考验在等着你们！</v>
+        <v>快走吧，现在也只能按他的提示一步步走了。</v>
       </c>
     </row>
     <row r="18">
@@ -648,13 +648,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>2-2</v>
+        <v>2-1</v>
       </c>
       <c r="C18" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="str">
-        <v>狗老板，你有本事出来，看老子不打死你...</v>
+        <v>怎么可能，为什么我们要来这密室逃脱，混蛋老板。不知道{2}和{3}怎么样了，到底谁被注射了药剂，怎么办，到底该怎么办，不管是谁被注射了，都太危险了，我到时候得想办法甩开他们！</v>
       </c>
     </row>
     <row r="19">
@@ -662,13 +662,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="C19" t="str">
-        <v>2,3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="str">
-        <v>喂，{1}，快醒醒，快醒醒...</v>
+        <v>有人被注射了变异，这可怎么办，难道今天真要交代在这里了，不行，我得冷静，到底是谁，谁会是被注射的那一个，会是我吗，不可能，肯定不是我，刚才{1}如此话痨，和他平常没什么区别，应该没什么异常。看来应该是{3}被注射了药剂，可恶，到底该怎么处理！</v>
       </c>
     </row>
     <row r="20">
@@ -676,13 +676,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>3-1</v>
+        <v>2-1</v>
       </c>
       <c r="C20" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="str">
-        <v>唔...（睁开了眼睛）...我怎么在这里，{2}，{3}，你们怎么在笼子里？</v>
+        <v>TMD，这个狗老板该死，别让老子抓到你，否则必然把你打一顿！等等，现在危险得很，是谁呢，是谁被注射了药剂，大家都是好朋友，哎，得赶紧出去，事到如今走一步算一步。</v>
       </c>
     </row>
     <row r="21">
@@ -690,13 +690,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>3-2</v>
+        <v>2-2</v>
       </c>
       <c r="C21" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="str">
-        <v>我们也不知道啊，我们一醒来就在笼子里了。</v>
+        <v>恭喜你们拿到了开启大门的钥匙，桀桀桀，开启大门吧，新的考验在等着你们！</v>
       </c>
     </row>
     <row r="22">
@@ -704,18 +704,214 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>3-3</v>
+        <v>2-2</v>
       </c>
       <c r="C22" t="str">
         <v>3</v>
       </c>
       <c r="D22" t="str">
-        <v>是啊，{}</v>
+        <v>狗老板，你有本事出来，看老子不打死你...</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>3-1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2,3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>喂，{1}，快醒醒，快醒醒...</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>3-1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>唔...（睁开了眼睛）...我怎么在这里，{2}，{3}，你们怎么在笼子里？</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3-1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2</v>
+      </c>
+      <c r="D25" t="str">
+        <v>我们也不知道啊，我们一醒来就在笼子里了。</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3-1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <v>是啊，这个老板真TM有病，{1}你快找找附近有没有钥匙，能放我们出去的。</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>3-1</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>我找找...</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2,3</v>
+      </c>
+      <c r="D28" t="str">
+        <v>太好了，终于可以开锁了，快放我们出去</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>等下，我在上一关卡得到一张纸条，说我们中间有一个人被悄无声息的注射了药剂，要不了多久就会发疯甚至会传染，刚刚我获得了这个道具，可以识别出哪个人被注射了。</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2,3</v>
+      </c>
+      <c r="D30" t="str">
+        <v>二人沉默了，手不自觉的握紧了拳头，十分紧张，生怕被注射的是自己</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>{3}，原来是你。陈江也沉默了...默不作声...</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <v>事到如今已经没有办法了，{1}，你快带着{2}走，你们先逃出去。</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <v>{3}，那你怎么办，{1}，你把{3}也放了，我们一起出去，我们一起进来的就要一起出去，我们只要抓紧时间帮{3}送到医院，相信一定能把{3}治好的</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>3-2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>4</v>
+      </c>
+      <c r="D34" t="str">
+        <v>你们想的挺美啊，没用的，药效马上就要上来了，快点做决定吧，否则你们都得死...还记得那些断肢吗，就是上一批人留下的，桀桀桀...</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3-3</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>不管了，我们兄弟一起逃出去，{2}说的对，我们要一起逃出去</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>3-4</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>对不起了，{2}，我们先走，先逃出去，到时候有机会一起救{3}</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D36"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -776,13 +972,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ItemId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ItemName</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ItemTip</v>
+      </c>
+      <c r="D1" t="str">
+        <v>IsUse</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>生命药水</v>
+      </c>
+      <c r="C2" t="str">
+        <v>生命药水，使用能够恢复30点血量</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>解药</v>
+      </c>
+      <c r="C3" t="str">
+        <v>解除药剂</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>yy</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ppppppppp</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Assets/Assets/游戏设计表.xlsx
+++ b/Assets/Assets/游戏设计表.xlsx
@@ -1,49 +1,355 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIGA\Assets\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A332A3-09E8-4483-AB98-9F76EBFA24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5784" yWindow="360" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="对话表" sheetId="1" r:id="rId1"/>
     <sheet name="人物表" sheetId="2" r:id="rId2"/>
     <sheet name="道具表" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>CharacterID</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>欢迎来到我的密室，在这里你会得到无比真实的体验</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>又到了最喜欢的解密环节了，朋友们！总之，先去找点线索吧</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>你先打个样，我俩静候佳音</t>
+  </si>
+  <si>
+    <t>我TM....</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>第一个解密也算是中规中矩了</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>两位，对讲机拿好（咬牙切齿）</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>大佬！我准备好躺赢了。芜湖！！！</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>唉......</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>地上的这些断臂、残肢怎么看也不像是道具啊，未免过于真实了（语气开始变得有些哆嗦）</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>连我都有点怕了，要不咱们走吧</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>怕啥，玩这么多密室了，还怕这些？</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>各位不用怀疑，地上这些都是真的。对于各位来到我的实验室，我表示由衷的感谢，接下来还请根据我的提示行动哦，不然我也不能保证不会发生意外哦，桀桀桀（此时传来了撕心裂肺的喊叫声）。</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>哎呀，实验品又开始不安分了呢，各位先走一步。提醒一句，接下来的关卡需要分工完成哦。</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>不可能，这都是密室的套路罢了，淡定。</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>你在其它密室哪里见过这样的尸体，我闻着都想吐。</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>快走吧，现在也只能按他的提示一步步走了。</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>怎么可能，为什么我们要来这密室逃脱，混蛋老板。不知道{2}和{3}怎么样了，到底谁被注射了药剂，怎么办，到底该怎么办，不管是谁被注射了，都太危险了，我到时候得想办法甩开他们！</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>有人被注射了变异，这可怎么办，难道今天真要交代在这里了，不行，我得冷静，到底是谁，谁会是被注射的那一个，会是我吗，不可能，肯定不是我，刚才{1}如此话痨，和他平常没什么区别，应该没什么异常。看来应该是{3}被注射了药剂，可恶，到底该怎么处理！</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TMD，这个狗老板该死，别让老子抓到你，否则必然把你打一顿！等等，现在危险得很，是谁呢，是谁被注射了药剂，大家都是好朋友，哎，得赶紧出去，事到如今走一步算一步。</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>恭喜你们拿到了开启大门的钥匙，桀桀桀，开启大门吧，新的考验在等着你们！</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>狗老板，你有本事出来，看老子不打死你...</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>喂，{1}，快醒醒，快醒醒...</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>唔...（睁开了眼睛）...我怎么在这里，{2}，{3}，你们怎么在笼子里？</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>我们也不知道啊，我们一醒来就在笼子里了。</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>是啊，这个老板真TM有病，{1}你快找找附近有没有钥匙，能放我们出去的。</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>我找找...</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>太好了，终于可以开锁了，快放我们出去</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>等下，我在上一关卡得到一张纸条，说我们中间有一个人被悄无声息的注射了药剂，要不了多久就会发疯甚至会传染，刚刚我获得了这个道具，可以识别出哪个人被注射了。</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>二人沉默了，手不自觉的握紧了拳头，十分紧张，生怕被注射的是自己</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>{3}，原来是你。陈江也沉默了...默不作声...</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>事到如今已经没有办法了，{1}，你快带着{2}走，你们先逃出去。</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>{3}，那你怎么办，{1}，你把{3}也放了，我们一起出去，我们一起进来的就要一起出去，我们只要抓紧时间帮{3}送到医院，相信一定能把{3}治好的</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>你们想的挺美啊，没用的，药效马上就要上来了，快点做决定吧，否则你们都得死...还记得那些断肢吗，就是上一批人留下的，桀桀桀...</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>不管了，我们兄弟一起逃出去，{2}说的对，我们要一起逃出去</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>对不起了，{2}，我们先走，先逃出去，到时候有机会一起救{3}</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>陈江</t>
+  </si>
+  <si>
+    <t>沈伟</t>
+  </si>
+  <si>
+    <t>勇杰</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>IsUse</t>
+  </si>
+  <si>
+    <t>生命药水</t>
+  </si>
+  <si>
+    <t>生命药水，使用能够恢复30点血量</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>解药</t>
+  </si>
+  <si>
+    <t>解除药剂</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>ppppppppp</t>
+  </si>
+  <si>
+    <t>TipContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="300" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,13 +374,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,390 +713,666 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Scene</v>
-      </c>
-      <c r="C1" t="str">
-        <v>CharacterID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Content</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>0-1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>4</v>
-      </c>
-      <c r="D2" t="str">
-        <v>欢迎来到我的密室，在这里你会得到无比真实的体验</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>1-1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>又到了最喜欢的解密环节了，朋友们！总之，先去找点线索吧</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>1-1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2,3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>你先打个样，我俩静候佳音</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>1-1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>我TM....</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>1-2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <v>第一个解密也算是中规中矩了</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>1-2</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1</v>
-      </c>
-      <c r="D7" t="str">
-        <v>两位，对讲机拿好（咬牙切齿）</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>1-2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2,3</v>
-      </c>
-      <c r="D8" t="str">
-        <v>大佬！我准备好躺赢了。芜湖！！！</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>1-2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <v>唉......</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>1-3</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2</v>
-      </c>
-      <c r="D10" t="str">
-        <v>地上的这些断臂、残肢怎么看也不像是道具啊，未免过于真实了（语气开始变得有些哆嗦）</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>1-3</v>
-      </c>
-      <c r="C11" t="str">
-        <v>1</v>
-      </c>
-      <c r="D11" t="str">
-        <v>连我都有点怕了，要不咱们走吧</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>1-3</v>
-      </c>
-      <c r="C12" t="str">
-        <v>3</v>
-      </c>
-      <c r="D12" t="str">
-        <v>怕啥，玩这么多密室了，还怕这些？</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>1-3</v>
-      </c>
-      <c r="C13" t="str">
-        <v>4</v>
-      </c>
-      <c r="D13" t="str">
-        <v>桀桀桀，各位不用怀疑，地上这些都是真的。对于各位来到我的实验室，我表示由衷的感谢，接下来还请根据我的提示</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>2-1</v>
-      </c>
-      <c r="C14" t="str">
-        <v>1</v>
-      </c>
-      <c r="D14" t="str">
-        <v>怎么可能，为什么我们要来这密室逃脱，混蛋老板。不知道{2}和{3}怎么样了，到底谁被注射了药剂，怎么办，到底该怎么办，不管是谁被注射了，都太危险了，我到时候得想办法甩开他们！</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>2-1</v>
-      </c>
-      <c r="C15" t="str">
-        <v>2</v>
-      </c>
-      <c r="D15" t="str">
-        <v>有人被注射了变异，这可怎么办，难道今天真要交代在这里了，不行，我得冷静，到底是谁，谁会是被注射的那一个，会是我吗，不可能，肯定不是我，刚才{1}如此话痨，和他平常没什么区别，应该没什么异常。看来应该是{3}被注射了药剂，可恶，到底该怎么处理！</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>2-1</v>
-      </c>
-      <c r="C16" t="str">
-        <v>3</v>
-      </c>
-      <c r="D16" t="str">
-        <v>TMD，这个狗老板该死，别让老子抓到你，否则必然把你打一顿！等等，现在危险得很，是谁呢，是谁被注射了药剂，大家都是好朋友，哎，得赶紧出去，事到如今走一步算一步。</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>2-2</v>
-      </c>
-      <c r="C17" t="str">
-        <v>4</v>
-      </c>
-      <c r="D17" t="str">
-        <v>恭喜你们拿到了开启大门的钥匙，桀桀桀，开启大门吧，新的考验在等着你们！</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>2-2</v>
-      </c>
-      <c r="C18" t="str">
-        <v>3</v>
-      </c>
-      <c r="D18" t="str">
-        <v>狗老板，你有本事出来，看老子不打死你...</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="C19" t="str">
-        <v>2,3</v>
-      </c>
-      <c r="D19" t="str">
-        <v>喂，{1}，快醒醒，快醒醒...</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>3-1</v>
-      </c>
-      <c r="C20" t="str">
-        <v>1</v>
-      </c>
-      <c r="D20" t="str">
-        <v>唔...（睁开了眼睛）...我怎么在这里，{2}，{3}，你们怎么在笼子里？</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>3-2</v>
-      </c>
-      <c r="C21" t="str">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
-        <v>我们也不知道啊，我们一醒来就在笼子里了。</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>3-3</v>
-      </c>
-      <c r="C22" t="str">
-        <v>3</v>
-      </c>
-      <c r="D22" t="str">
-        <v>是啊，{}</v>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
+    <ignoredError sqref="A1:D36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>CharacterID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>陈江</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>沈伟</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>勇杰</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>医生</v>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
+    <ignoredError sqref="A1:B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError sqref="A2:D4 A1 D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>